--- a/R scripts/FWE taxa dictionary v8 - metadata 2022-08-23.xlsx
+++ b/R scripts/FWE taxa dictionary v8 - metadata 2022-08-23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40436072c29b51f3/University of Johannesburg/Post-Doc/Nature Research Centre/How Changes in Bioversity Change Biodiversity/Analyses/BioChange_Deliverables_1_and_2/R scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40436072c29b51f3/University of Johannesburg/Post-Doc/Nature Research Centre/How Changes in Bioversity Change Biodiversity/Analyses/Biochange_Paper1/R scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{398FC74B-BF23-4EEF-B527-7B59C6B77571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02AEFFC6-2977-4FAE-859A-B4F92CCDD801}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{51B62EEF-D7EA-4BA8-8EBC-E61E6C420191}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{51B62EEF-D7EA-4BA8-8EBC-E61E6C420191}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -2473,20 +2473,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF90F2AF-B978-467B-9B13-FB1E9C4E72B8}">
   <dimension ref="A1:E182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="35.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" style="7" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>595</v>
       </c>
@@ -2494,7 +2494,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>596</v>
       </c>
@@ -2502,7 +2502,7 @@
       <c r="C2" s="13"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="18" t="s">
         <v>6</v>
@@ -2551,7 +2551,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="18" t="s">
         <v>8</v>
@@ -2566,7 +2566,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="18" t="s">
         <v>13</v>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="18" t="s">
         <v>15</v>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="18" t="s">
         <v>17</v>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="18" t="s">
         <v>22</v>
@@ -2652,7 +2652,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="18" t="s">
         <v>24</v>
@@ -2667,7 +2667,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="18" t="s">
         <v>26</v>
@@ -2682,7 +2682,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="18" t="s">
         <v>28</v>
@@ -2697,7 +2697,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="18" t="s">
         <v>30</v>
@@ -2712,7 +2712,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="18" t="s">
         <v>32</v>
@@ -2727,7 +2727,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="18" t="s">
         <v>37</v>
@@ -2759,7 +2759,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="18" t="s">
         <v>39</v>
@@ -2774,7 +2774,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="18" t="s">
         <v>41</v>
@@ -2789,7 +2789,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="18" t="s">
         <v>46</v>
@@ -2821,7 +2821,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="18" t="s">
         <v>48</v>
@@ -2836,7 +2836,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="18" t="s">
         <v>50</v>
@@ -2851,7 +2851,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="18" t="s">
         <v>55</v>
@@ -2883,7 +2883,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="18" t="s">
         <v>57</v>
@@ -2898,7 +2898,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="18" t="s">
         <v>59</v>
@@ -2913,7 +2913,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="18" t="s">
         <v>61</v>
@@ -2928,7 +2928,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="18" t="s">
         <v>6</v>
@@ -2943,7 +2943,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="18" t="s">
         <v>64</v>
@@ -2958,7 +2958,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="18" t="s">
         <v>66</v>
@@ -2973,7 +2973,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>68</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="18" t="s">
         <v>71</v>
@@ -3005,7 +3005,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="18" t="s">
         <v>73</v>
@@ -3020,7 +3020,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="18" t="s">
         <v>57</v>
@@ -3035,7 +3035,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="18" t="s">
         <v>76</v>
@@ -3050,7 +3050,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="18" t="s">
         <v>78</v>
@@ -3065,7 +3065,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="18" t="s">
         <v>80</v>
@@ -3080,7 +3080,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="18" t="s">
         <v>64</v>
@@ -3095,7 +3095,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="18" t="s">
         <v>66</v>
@@ -3110,7 +3110,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="18" t="s">
         <v>84</v>
@@ -3125,7 +3125,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>86</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="18" t="s">
         <v>89</v>
@@ -3157,7 +3157,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="18" t="s">
         <v>91</v>
@@ -3172,7 +3172,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="18" t="s">
         <v>93</v>
@@ -3187,7 +3187,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="18" t="s">
         <v>95</v>
@@ -3202,7 +3202,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="18" t="s">
         <v>97</v>
@@ -3217,7 +3217,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="18" t="s">
         <v>99</v>
@@ -3232,7 +3232,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="18" t="s">
         <v>101</v>
@@ -3247,7 +3247,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="18" t="s">
         <v>103</v>
@@ -3262,7 +3262,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>105</v>
       </c>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="18" t="s">
         <v>108</v>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>110</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="18" t="s">
         <v>113</v>
@@ -3322,7 +3322,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="18" t="s">
         <v>115</v>
@@ -3337,7 +3337,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="18" t="s">
         <v>117</v>
@@ -3352,7 +3352,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="18" t="s">
         <v>119</v>
@@ -3367,7 +3367,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="18" t="s">
         <v>121</v>
@@ -3382,7 +3382,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="18" t="s">
         <v>123</v>
@@ -3397,7 +3397,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="18" t="s">
         <v>125</v>
@@ -3412,7 +3412,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>127</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="18" t="s">
         <v>130</v>
@@ -3444,7 +3444,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="18" t="s">
         <v>132</v>
@@ -3459,7 +3459,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="18" t="s">
         <v>134</v>
@@ -3474,7 +3474,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="18" t="s">
         <v>136</v>
@@ -3489,7 +3489,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="18" t="s">
         <v>84</v>
@@ -3504,7 +3504,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>139</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="18" t="s">
         <v>142</v>
@@ -3536,7 +3536,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="18" t="s">
         <v>144</v>
@@ -3551,7 +3551,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="18" t="s">
         <v>146</v>
@@ -3566,7 +3566,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="18" t="s">
         <v>148</v>
@@ -3581,7 +3581,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="18" t="s">
         <v>150</v>
@@ -3596,7 +3596,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="18" t="s">
         <v>152</v>
@@ -3611,7 +3611,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="18" t="s">
         <v>154</v>
@@ -3626,7 +3626,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>156</v>
       </c>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="18" t="s">
         <v>159</v>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="18" t="s">
         <v>161</v>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="E80" s="7"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="18" t="s">
         <v>163</v>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="E81" s="7"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="18" t="s">
         <v>165</v>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="E82" s="7"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="18" t="s">
         <v>167</v>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="E83" s="7"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="18" t="s">
         <v>169</v>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="E84" s="7"/>
     </row>
-    <row r="85" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>613</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="18" t="s">
         <v>615</v>
@@ -3751,7 +3751,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="18" t="s">
         <v>616</v>
@@ -3766,7 +3766,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="18" t="s">
         <v>617</v>
@@ -3781,7 +3781,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="18" t="s">
         <v>261</v>
@@ -3796,7 +3796,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="18" t="s">
         <v>618</v>
@@ -3811,7 +3811,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="18" t="s">
         <v>619</v>
@@ -3826,7 +3826,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="18" t="s">
         <v>84</v>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="E92" s="7"/>
     </row>
-    <row r="93" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>171</v>
       </c>
@@ -3854,7 +3854,7 @@
       </c>
       <c r="E93" s="6"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="18" t="s">
         <v>174</v>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="E94" s="7"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="18" t="s">
         <v>176</v>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="E95" s="7"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="18" t="s">
         <v>178</v>
@@ -3893,7 +3893,7 @@
       </c>
       <c r="E96" s="7"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="18" t="s">
         <v>180</v>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="18" t="s">
         <v>182</v>
@@ -3919,7 +3919,7 @@
       </c>
       <c r="E98" s="7"/>
     </row>
-    <row r="99" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>184</v>
       </c>
@@ -3934,7 +3934,7 @@
       </c>
       <c r="E99" s="6"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="18">
         <v>1</v>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="18" t="s">
         <v>188</v>
@@ -3960,7 +3960,7 @@
       </c>
       <c r="E101" s="7"/>
     </row>
-    <row r="102" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>190</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="18" t="s">
         <v>193</v>
@@ -3992,7 +3992,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="18" t="s">
         <v>195</v>
@@ -4007,7 +4007,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="18" t="s">
         <v>197</v>
@@ -4022,7 +4022,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="18" t="s">
         <v>199</v>
@@ -4037,7 +4037,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="18" t="s">
         <v>201</v>
@@ -4052,7 +4052,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="18" t="s">
         <v>203</v>
@@ -4067,7 +4067,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="18" t="s">
         <v>205</v>
@@ -4082,7 +4082,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="110" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>207</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="18" t="s">
         <v>209</v>
@@ -4114,7 +4114,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="18" t="s">
         <v>211</v>
@@ -4129,7 +4129,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="18" t="s">
         <v>213</v>
@@ -4144,7 +4144,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="18" t="s">
         <v>215</v>
@@ -4159,7 +4159,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="115" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>217</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="18" t="s">
         <v>220</v>
@@ -4191,7 +4191,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="18" t="s">
         <v>222</v>
@@ -4206,7 +4206,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="18" t="s">
         <v>224</v>
@@ -4221,7 +4221,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="18" t="s">
         <v>226</v>
@@ -4236,7 +4236,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="120" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>228</v>
       </c>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="E120" s="6"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="18" t="s">
         <v>231</v>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="E121" s="7"/>
     </row>
-    <row r="122" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>233</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="18" t="s">
         <v>236</v>
@@ -4296,7 +4296,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="18" t="s">
         <v>238</v>
@@ -4311,7 +4311,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="18" t="s">
         <v>240</v>
@@ -4326,7 +4326,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="18" t="s">
         <v>242</v>
@@ -4341,7 +4341,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="127" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>244</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="18" t="s">
         <v>247</v>
@@ -4373,7 +4373,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="18" t="s">
         <v>249</v>
@@ -4388,7 +4388,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="18" t="s">
         <v>251</v>
@@ -4403,7 +4403,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="18" t="s">
         <v>253</v>
@@ -4418,7 +4418,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="18" t="s">
         <v>255</v>
@@ -4433,7 +4433,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="18" t="s">
         <v>257</v>
@@ -4448,7 +4448,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="18" t="s">
         <v>259</v>
@@ -4463,7 +4463,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="18" t="s">
         <v>261</v>
@@ -4478,7 +4478,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="1"/>
       <c r="B136" s="18" t="s">
         <v>263</v>
@@ -4493,7 +4493,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="137" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>265</v>
       </c>
@@ -4508,7 +4508,7 @@
       </c>
       <c r="E137" s="6"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="18" t="s">
         <v>268</v>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="E138" s="7"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="18" t="s">
         <v>270</v>
@@ -4534,7 +4534,7 @@
       </c>
       <c r="E139" s="7"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="18" t="s">
         <v>272</v>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="E140" s="7"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="18" t="s">
         <v>274</v>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="E141" s="7"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="18" t="s">
         <v>276</v>
@@ -4573,7 +4573,7 @@
       </c>
       <c r="E142" s="7"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="18" t="s">
         <v>278</v>
@@ -4586,7 +4586,7 @@
       </c>
       <c r="E143" s="7"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="18" t="s">
         <v>280</v>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="E144" s="7"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="18" t="s">
         <v>282</v>
@@ -4612,7 +4612,7 @@
       </c>
       <c r="E145" s="7"/>
     </row>
-    <row r="146" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>284</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="18" t="s">
         <v>287</v>
@@ -4644,7 +4644,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="18" t="s">
         <v>289</v>
@@ -4659,7 +4659,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="149" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>291</v>
       </c>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="E149" s="6"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
       <c r="B150" s="18" t="s">
         <v>294</v>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="E150" s="7"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
       <c r="B151" s="18" t="s">
         <v>296</v>
@@ -4700,7 +4700,7 @@
       </c>
       <c r="E151" s="7"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="1"/>
       <c r="B152" s="18" t="s">
         <v>298</v>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="E152" s="7"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" s="18" t="s">
         <v>300</v>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="E153" s="7"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="18" t="s">
         <v>302</v>
@@ -4739,7 +4739,7 @@
       </c>
       <c r="E154" s="7"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="1"/>
       <c r="B155" s="18" t="s">
         <v>304</v>
@@ -4752,7 +4752,7 @@
       </c>
       <c r="E155" s="7"/>
     </row>
-    <row r="156" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>306</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="1"/>
       <c r="B157" s="18" t="s">
         <v>309</v>
@@ -4784,7 +4784,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="1"/>
       <c r="B158" s="18" t="s">
         <v>311</v>
@@ -4799,7 +4799,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="159" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
         <v>334</v>
       </c>
@@ -4814,7 +4814,7 @@
       </c>
       <c r="E159" s="6"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="2"/>
       <c r="B160" s="18" t="s">
         <v>337</v>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="E160" s="7"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="2"/>
       <c r="B161" s="18" t="s">
         <v>339</v>
@@ -4840,7 +4840,7 @@
       </c>
       <c r="E161" s="7"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="2"/>
       <c r="B162" s="18" t="s">
         <v>341</v>
@@ -4853,7 +4853,7 @@
       </c>
       <c r="E162" s="7"/>
     </row>
-    <row r="163" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
         <v>343</v>
       </c>
@@ -4868,7 +4868,7 @@
       </c>
       <c r="E163" s="6"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="2"/>
       <c r="B164" s="18" t="s">
         <v>346</v>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="E164" s="7"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="2"/>
       <c r="B165" s="18" t="s">
         <v>348</v>
@@ -4894,7 +4894,7 @@
       </c>
       <c r="E165" s="7"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="2"/>
       <c r="B166" s="18" t="s">
         <v>350</v>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="E166" s="7"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="2"/>
       <c r="B167" s="18" t="s">
         <v>352</v>
@@ -4920,7 +4920,7 @@
       </c>
       <c r="E167" s="7"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="2"/>
       <c r="B168" s="18" t="s">
         <v>354</v>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="E168" s="7"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="2"/>
       <c r="B169" s="18" t="s">
         <v>356</v>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="E169" s="7"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="2"/>
       <c r="B170" s="18" t="s">
         <v>358</v>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="E170" s="7"/>
     </row>
-    <row r="171" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
         <v>360</v>
       </c>
@@ -4974,7 +4974,7 @@
       </c>
       <c r="E171" s="6"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="2"/>
       <c r="B172" s="18" t="s">
         <v>363</v>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="E172" s="7"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="2"/>
       <c r="B173" s="18" t="s">
         <v>364</v>
@@ -5000,7 +5000,7 @@
       </c>
       <c r="E173" s="7"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="2"/>
       <c r="B174" s="18" t="s">
         <v>366</v>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="E174" s="7"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="2"/>
       <c r="B175" s="18" t="s">
         <v>368</v>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="E175" s="7"/>
     </row>
-    <row r="176" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="5" t="s">
         <v>370</v>
       </c>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="E176" s="6"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="2"/>
       <c r="B177" s="18" t="s">
         <v>373</v>
@@ -5054,7 +5054,7 @@
       </c>
       <c r="E177" s="7"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="2"/>
       <c r="B178" s="18" t="s">
         <v>375</v>
@@ -5067,7 +5067,7 @@
       </c>
       <c r="E178" s="7"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="2"/>
       <c r="B179" s="18" t="s">
         <v>377</v>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="E179" s="7"/>
     </row>
-    <row r="180" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A180" s="5" t="s">
         <v>379</v>
       </c>
@@ -5095,7 +5095,7 @@
       </c>
       <c r="E180" s="6"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="2"/>
       <c r="B181" s="18" t="s">
         <v>382</v>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="E181" s="7"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="2"/>
       <c r="B182" s="18" t="s">
         <v>384</v>
@@ -5134,12 +5134,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>599</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>598</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>603</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>607</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>610</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>642</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>645</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>648</v>
       </c>

--- a/R scripts/FWE taxa dictionary v8 - metadata 2022-08-23.xlsx
+++ b/R scripts/FWE taxa dictionary v8 - metadata 2022-08-23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40436072c29b51f3/University of Johannesburg/Post-Doc/Nature Research Centre/How Changes in Bioversity Change Biodiversity/Analyses/Biochange_Paper1/R scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{398FC74B-BF23-4EEF-B527-7B59C6B77571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02AEFFC6-2977-4FAE-859A-B4F92CCDD801}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{398FC74B-BF23-4EEF-B527-7B59C6B77571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A60A340-6B34-44D6-B42C-C647E60E7CF4}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{51B62EEF-D7EA-4BA8-8EBC-E61E6C420191}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{51B62EEF-D7EA-4BA8-8EBC-E61E6C420191}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -2473,8 +2473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF90F2AF-B978-467B-9B13-FB1E9C4E72B8}">
   <dimension ref="A1:E182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
